--- a/Documentación/Pruebas/Pruebas de rendimiento/Results.xlsx
+++ b/Documentación/Pruebas/Pruebas de rendimiento/Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4E99030-B40E-40EA-8669-C6111106845B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11F50D08-296F-4980-928A-FD10BB5498B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
@@ -2691,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD42C96E-B251-4614-991D-0270919C7645}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,7 +3047,7 @@
         <v>11.62</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:D15" si="0">A6-A5</f>
+        <f t="shared" ref="B6:D13" si="0">A6-A5</f>
         <v>3.6799999999999988</v>
       </c>
       <c r="C6">
@@ -3418,6 +3418,18 @@
       <c r="Q14" s="1">
         <f>AVERAGE(Q3:Q13)</f>
         <v>1.5427272727272727</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>D14/B14</f>
+        <v>0.57458861613164292</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f>O14/M14</f>
+        <v>0.55736106597335056</v>
       </c>
     </row>
   </sheetData>
